--- a/tables/2022-12/regional_table_Dec.xlsx
+++ b/tables/2022-12/regional_table_Dec.xlsx
@@ -17,12 +17,6 @@
     <t>Proportion sequenced (%)</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Percentage Alpha (95% CI)</t>
-  </si>
-  <si>
     <t>Omicron (BA.1)</t>
   </si>
   <si>
@@ -53,6 +47,12 @@
     <t>Percentage Omicron (BA.2.75) (95% CI)</t>
   </si>
   <si>
+    <t>Omicron (BQ.1)</t>
+  </si>
+  <si>
+    <t>Percentage Omicron (BQ.1) (95% CI)</t>
+  </si>
+  <si>
     <t>Omicron (XBB)</t>
   </si>
   <si>
@@ -107,7 +107,61 @@
     <t>1.6</t>
   </si>
   <si>
-    <t>62.6 (59.3-65.8)</t>
+    <t>0.1 (0.0-0.6)</t>
+  </si>
+  <si>
+    <t>0.3 (0.0-1.9)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0.3 (0.1-1.0)</t>
+  </si>
+  <si>
+    <t>0.9 (0.1-3.3)</t>
+  </si>
+  <si>
+    <t>1.8 (1.0-3.0)</t>
+  </si>
+  <si>
+    <t>4.2 (2.2-7.1)</t>
+  </si>
+  <si>
+    <t>0.7 (0.0-3.9)</t>
+  </si>
+  <si>
+    <t>1.5 (0.0-8.3)</t>
+  </si>
+  <si>
+    <t>15.0 (12.7-17.5)</t>
+  </si>
+  <si>
+    <t>11.1 (7.7-15.3)</t>
+  </si>
+  <si>
+    <t>19.4 (13.2-27.0)</t>
+  </si>
+  <si>
+    <t>16.4 (10.8-23.5)</t>
+  </si>
+  <si>
+    <t>5.9 (0.1-28.7)</t>
+  </si>
+  <si>
+    <t>17.1 (12.4-22.8)</t>
+  </si>
+  <si>
+    <t>13.8 (6.5-24.7)</t>
+  </si>
+  <si>
+    <t>0.2 (0.0-0.8)</t>
+  </si>
+  <si>
+    <t>0.5 (0.0-2.6)</t>
+  </si>
+  <si>
+    <t>61.9 (58.6-65.1)</t>
   </si>
   <si>
     <t>67.5 (61.7-72.8)</t>
@@ -116,7 +170,7 @@
     <t>58.3 (49.6-66.6)</t>
   </si>
   <si>
-    <t>56.2 (47.7-64.4)</t>
+    <t>52.1 (43.6-60.4)</t>
   </si>
   <si>
     <t>58.8 (32.9-81.6)</t>
@@ -128,60 +182,6 @@
     <t>63.1 (50.2-74.7)</t>
   </si>
   <si>
-    <t>0.1 (0.0-0.6)</t>
-  </si>
-  <si>
-    <t>0.3 (0.0-1.9)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>0.3 (0.1-1.0)</t>
-  </si>
-  <si>
-    <t>0.9 (0.1-3.3)</t>
-  </si>
-  <si>
-    <t>1.8 (1.0-3.0)</t>
-  </si>
-  <si>
-    <t>4.2 (2.2-7.1)</t>
-  </si>
-  <si>
-    <t>0.7 (0.0-3.9)</t>
-  </si>
-  <si>
-    <t>1.5 (0.0-8.3)</t>
-  </si>
-  <si>
-    <t>15.0 (12.7-17.5)</t>
-  </si>
-  <si>
-    <t>11.1 (7.7-15.3)</t>
-  </si>
-  <si>
-    <t>19.4 (13.2-27.0)</t>
-  </si>
-  <si>
-    <t>16.4 (10.8-23.5)</t>
-  </si>
-  <si>
-    <t>5.9 (0.1-28.7)</t>
-  </si>
-  <si>
-    <t>17.1 (12.4-22.8)</t>
-  </si>
-  <si>
-    <t>13.8 (6.5-24.7)</t>
-  </si>
-  <si>
-    <t>0.2 (0.0-0.8)</t>
-  </si>
-  <si>
-    <t>0.5 (0.0-2.6)</t>
-  </si>
-  <si>
     <t>2.1 (1.2-3.2)</t>
   </si>
   <si>
@@ -197,7 +197,7 @@
     <t>2.3 (0.8-5.3)</t>
   </si>
   <si>
-    <t>17.8 (15.4-20.6)</t>
+    <t>18.5 (16.0-21.3)</t>
   </si>
   <si>
     <t>14.9 (11.0-19.5)</t>
@@ -206,7 +206,7 @@
     <t>18.0 (12.0-25.4)</t>
   </si>
   <si>
-    <t>26.0 (19.1-33.9)</t>
+    <t>30.1 (22.8-38.3)</t>
   </si>
   <si>
     <t>29.4 (10.3-56.0)</t>
@@ -331,40 +331,40 @@
         <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>547.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I2" t="n">
-        <v>16.0</v>
+        <v>131.0</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
-        <v>131.0</v>
+        <v>2.0</v>
       </c>
       <c r="L2" t="s">
         <v>47</v>
       </c>
       <c r="M2" t="n">
-        <v>2.0</v>
+        <v>541.0</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O2" t="n">
         <v>18.0</v>
@@ -373,7 +373,7 @@
         <v>56</v>
       </c>
       <c r="Q2" t="n">
-        <v>156.0</v>
+        <v>162.0</v>
       </c>
       <c r="R2" t="s">
         <v>61</v>
@@ -390,7 +390,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>195.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
@@ -399,31 +399,31 @@
         <v>1.0</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K3" t="n">
-        <v>32.0</v>
+        <v>1.0</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M3" t="n">
-        <v>1.0</v>
+        <v>195.0</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O3" t="n">
         <v>4.0</v>
@@ -449,40 +449,40 @@
         <v>27</v>
       </c>
       <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="n">
         <v>81.0</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="O4" t="n">
         <v>5.0</v>
@@ -508,40 +508,40 @@
         <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>82.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K5" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="O5" t="n">
         <v>2.0</v>
@@ -550,7 +550,7 @@
         <v>59</v>
       </c>
       <c r="Q5" t="n">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
       <c r="R5" t="s">
         <v>64</v>
@@ -567,46 +567,46 @@
         <v>29</v>
       </c>
       <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="n">
         <v>10.0</v>
       </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.0</v>
-      </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="O6" t="n">
         <v>1.0</v>
       </c>
       <c r="P6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q6" t="n">
         <v>5.0</v>
@@ -626,40 +626,40 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>137.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G7" t="n">
         <v>2.0</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I7" t="n">
-        <v>2.0</v>
+        <v>37.0</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K7" t="n">
-        <v>37.0</v>
+        <v>1.0</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M7" t="n">
-        <v>1.0</v>
+        <v>137.0</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O7" t="n">
         <v>5.0</v>
@@ -685,46 +685,46 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="J8" t="s">
         <v>46</v>
       </c>
       <c r="K8" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="O8" t="n">
         <v>1.0</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Q8" t="n">
         <v>13.0</v>
